--- a/Resources/2004/Advanced_Percentile_2004.xlsx
+++ b/Resources/2004/Advanced_Percentile_2004.xlsx
@@ -1387,7 +1387,7 @@
     <t>Kobe Bryant</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Sam Cassell</t>
@@ -1399,13 +1399,13 @@
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Dirk Nowitzki</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Elton Brand</t>
@@ -1420,7 +1420,7 @@
     <t>Pau Gasol</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Chauncey Billups</t>
@@ -1456,7 +1456,7 @@
     <t>Brian Cardinal</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Stephon Marbury</t>
@@ -1516,7 +1516,7 @@
     <t>Michael Finley</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Stromile Swift</t>
@@ -1534,13 +1534,13 @@
     <t>Vince Carter</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Amar'e Stoudemire</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Kaniel Dickens</t>
@@ -1558,7 +1558,7 @@
     <t>Antonio Daniels</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Rasheed Wallace</t>
@@ -1663,7 +1663,7 @@
     <t>Kerry Kittles</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>Robert Traylor</t>
@@ -1771,7 +1771,7 @@
     <t>Rodney White</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Aaron McKie</t>
@@ -1927,7 +1927,7 @@
     <t>Devin Brown</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Glenn Robinson</t>
@@ -2152,7 +2152,7 @@
     <t>Torraye Braggs</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Antonio McDyess</t>
